--- a/data_source/tool_label_name_pairs.xlsx
+++ b/data_source/tool_label_name_pairs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\Github\QuAnGIS_workflow_annotation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\Github\QuAnGIS_workflow_annotation\data_source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0A7E7A2-D9D0-4A5C-A741-F0F4D57AE0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A8C1A4-FF68-4A94-B4E4-A8C7A7448539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3D0BC30A-0720-42EF-A28E-BB134AA2C734}"/>
+    <workbookView xWindow="450" yWindow="435" windowWidth="23010" windowHeight="12360" xr2:uid="{3D0BC30A-0720-42EF-A28E-BB134AA2C734}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Solve</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/analysis/buffer.htm</t>
+  </si>
+  <si>
+    <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/data-management/merge.htm</t>
+  </si>
+  <si>
+    <t>Merge</t>
   </si>
 </sst>
 </file>
@@ -601,19 +607,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7FB483-9316-4DD2-B81C-523871DFF775}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="125.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="125.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -621,7 +627,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,7 +635,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -637,7 +643,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -645,7 +651,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -653,7 +659,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -661,7 +667,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -669,7 +675,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -677,7 +683,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -685,7 +691,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -693,7 +699,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -701,7 +707,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -709,7 +715,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -717,7 +723,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -725,7 +731,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -733,7 +739,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -741,7 +747,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -749,7 +755,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -757,7 +763,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -765,7 +771,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -773,7 +779,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -781,7 +787,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -789,7 +795,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -797,7 +803,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -805,7 +811,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -813,7 +819,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -821,7 +827,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -829,7 +835,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -837,7 +843,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -845,7 +851,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -853,7 +859,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -861,12 +867,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -874,5 +888,6 @@
     <hyperlink ref="B5" r:id="rId1" xr:uid="{F7DCE207-9BFF-4B60-9B89-D1503FC7F1C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>